--- a/因果关系.xlsx
+++ b/因果关系.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSL\CausalityExtraction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F00D4-95CB-44FA-B128-CBF737CF6FD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23208" windowHeight="12708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23205" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>关键词</t>
   </si>
@@ -61,6 +55,9 @@
     <t xml:space="preserve">因 give rise to 果 </t>
   </si>
   <si>
+    <t>trigger</t>
+  </si>
+  <si>
     <t>因 trigger(v) 果</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
     <t>果 trigered by 因</t>
   </si>
   <si>
+    <t>trigger for</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>因 increase(v) 果</t>
   </si>
   <si>
@@ -349,6 +352,9 @@
     <t>if 因 then 果</t>
   </si>
   <si>
+    <t>if... will</t>
+  </si>
+  <si>
     <t>as</t>
   </si>
   <si>
@@ -371,25 +377,19 @@
   </si>
   <si>
     <t>做的事情 for the purpose of 目的</t>
-  </si>
-  <si>
-    <t>trigger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger for</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>increase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,19 +408,155 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,8 +575,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -448,28 +770,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -593,7 +1202,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -617,9 +1226,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -643,7 +1252,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -696,7 +1305,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -721,36 +1330,36 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="38.77734375" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.1083333333333" customWidth="true"/>
+    <col min="2" max="2" width="14.1083333333333" customWidth="true"/>
+    <col min="3" max="3" width="38.775" customWidth="true"/>
+    <col min="4" max="4" width="30.1083333333333" customWidth="true"/>
+    <col min="5" max="5" width="38" customWidth="true"/>
+    <col min="6" max="6" width="30.4416666666667" customWidth="true"/>
+    <col min="7" max="7" width="22.4416666666667" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -761,450 +1370,453 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>116</v>
+      <c r="C46" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>